--- a/nriss-patch-1/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>2.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:22:41+00:00</t>
+    <t>2025-08-01T06:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-1/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:26:01+00:00</t>
+    <t>2025-08-01T06:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nriss-patch-1/ig/StructureDefinition-tddui-patient-ins.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-patient-ins.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7663" uniqueCount="869">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T08:22:07+00:00</t>
+    <t>2025-12-19T09:47:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,7 +449,7 @@
     <t>Patient.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -478,7 +478,7 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|2.1.0</t>
   </si>
   <si>
     <t>Patient.meta.security</t>
@@ -503,7 +503,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -527,7 +527,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -570,7 +570,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -649,7 +649,7 @@
     <t>nationality</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-nationality|2.1.0}
 </t>
   </si>
   <si>
@@ -669,7 +669,7 @@
     <t>identityReliability</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-identity-reliability|2.1.0}
 </t>
   </si>
   <si>
@@ -685,7 +685,7 @@
     <t>deathPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-death-place|2.1.0}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>birthdateUpdateIndicator</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birthdate-update-indicator|2.1.0}
 </t>
   </si>
   <si>
@@ -714,7 +714,7 @@
     <t>birthPlace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {patient-birthPlace}
+    <t xml:space="preserve">Extension {patient-birthPlace|5.2.0}
 </t>
   </si>
   <si>
@@ -763,7 +763,7 @@
     <t>Patient.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -803,7 +803,7 @@
     <t>inseeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address-insee-code|2.1.0}
 </t>
   </si>
   <si>
@@ -1212,7 +1212,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-patient-identifier-vs|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1353,7 +1353,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Patient.identifier:NSS.system</t>
@@ -1369,10 +1369,6 @@
   </si>
   <si>
     <t>Patient.identifier:NSS.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
   </si>
   <si>
     <t>Patient.identifier:INS-C</t>
@@ -1785,9 +1781,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
-  </si>
-  <si>
     <t>Patient.identifier:InitialNumberMDPH.system</t>
   </si>
   <si>
@@ -1834,7 +1827,7 @@
     <t>Patient.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name}
+    <t xml:space="preserve">HumanName {https://interop.esante.gouv.fr/ig/fhir/tddui/StructureDefinition/tddui-human-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -2087,7 +2080,7 @@
     <t>birth-list-given-name</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-birth-list-given-name|2.1.0}
 </t>
   </si>
   <si>
@@ -2136,7 +2129,7 @@
     <t>Patient.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -2177,7 +2170,7 @@
     <t>Needed for identification of the individual, in combination with (at least) name and birth date.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-gender-INS|2.1.0</t>
   </si>
   <si>
     <t>sexe</t>
@@ -2269,7 +2262,7 @@
     <t>Most, if not all systems capture it.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-marital-status|2.1.0</t>
   </si>
   <si>
     <t>player[classCode=PSN]/maritalStatusCode</t>
@@ -2372,7 +2365,7 @@
     <t>contactIdentifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-contact-identifier|2.1.0}
 </t>
   </si>
   <si>
@@ -2388,7 +2381,7 @@
     <t>comment</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-comment|2.1.0}
 </t>
   </si>
   <si>
@@ -2430,7 +2423,7 @@
     <t>The nature of the relationship between a patient and a contact person for that patient.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship</t>
+    <t>http://hl7.org/fhir/ValueSet/patient-contactrelationship|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:coding.system}
@@ -2452,7 +2445,7 @@
     <t>The nature of the relationship. Rôle de la personne. Ex : personne de confiance, aidant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-patient-contact-role|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.relationship:RelationType</t>
@@ -2464,13 +2457,13 @@
     <t>The nature of the relationship. Relation de la personne. Ex : Mère, époux, enfant ...</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-relation-type|2.1.0</t>
   </si>
   <si>
     <t>Patient.contact.name</t>
   </si>
   <si>
-    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name}
+    <t xml:space="preserve">HumanName {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-human-name|2.1.0}
 </t>
   </si>
   <si>
@@ -2660,7 +2653,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|PractitionerRole)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|2.1.0|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -2684,7 +2677,7 @@
     <t>Patient.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -2735,7 +2728,7 @@
     <t>Patient.link.other</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -3102,7 +3095,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="124.00390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="137.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3117,7 +3110,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="61.984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.4921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="64.48046875" customWidth="true" bestFit="true"/>
@@ -10117,7 +10110,7 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>412</v>
@@ -10211,13 +10204,13 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>82</v>
@@ -10242,7 +10235,7 @@
         <v>357</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>359</v>
@@ -10333,7 +10326,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>367</v>
@@ -10451,7 +10444,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>368</v>
@@ -10571,7 +10564,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>369</v>
@@ -10619,7 +10612,7 @@
         <v>82</v>
       </c>
       <c r="S63" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T63" t="s" s="2">
         <v>82</v>
@@ -10693,7 +10686,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>378</v>
@@ -10725,7 +10718,7 @@
         <v>380</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>382</v>
@@ -10741,7 +10734,7 @@
         <v>82</v>
       </c>
       <c r="S64" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>82</v>
@@ -10815,7 +10808,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>387</v>
@@ -10863,7 +10856,7 @@
         <v>82</v>
       </c>
       <c r="S65" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>392</v>
@@ -10937,7 +10930,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>396</v>
@@ -11057,7 +11050,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>404</v>
@@ -11175,7 +11168,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>410</v>
@@ -11201,7 +11194,7 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L68" t="s" s="2">
         <v>412</v>
@@ -11295,13 +11288,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>82</v>
@@ -11326,7 +11319,7 @@
         <v>357</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>359</v>
@@ -11417,7 +11410,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>367</v>
@@ -11535,7 +11528,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>368</v>
@@ -11655,7 +11648,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>369</v>
@@ -11703,7 +11696,7 @@
         <v>82</v>
       </c>
       <c r="S72" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T72" t="s" s="2">
         <v>82</v>
@@ -11777,7 +11770,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>378</v>
@@ -11825,7 +11818,7 @@
         <v>82</v>
       </c>
       <c r="S73" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>82</v>
@@ -11899,7 +11892,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>387</v>
@@ -11947,7 +11940,7 @@
         <v>82</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>392</v>
@@ -12021,7 +12014,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>396</v>
@@ -12141,7 +12134,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>404</v>
@@ -12259,7 +12252,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>410</v>
@@ -12285,7 +12278,7 @@
         <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>412</v>
@@ -12379,13 +12372,13 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>82</v>
@@ -12410,7 +12403,7 @@
         <v>357</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>359</v>
@@ -12481,7 +12474,7 @@
         <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>363</v>
@@ -12501,7 +12494,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>367</v>
@@ -12619,7 +12612,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>368</v>
@@ -12739,7 +12732,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>369</v>
@@ -12787,7 +12780,7 @@
         <v>82</v>
       </c>
       <c r="S81" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T81" t="s" s="2">
         <v>82</v>
@@ -12861,7 +12854,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>378</v>
@@ -12909,7 +12902,7 @@
         <v>82</v>
       </c>
       <c r="S82" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>82</v>
@@ -12983,7 +12976,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>387</v>
@@ -13031,7 +13024,7 @@
         <v>82</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>392</v>
@@ -13105,7 +13098,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>396</v>
@@ -13225,7 +13218,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>404</v>
@@ -13343,7 +13336,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>410</v>
@@ -13369,7 +13362,7 @@
         <v>92</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>412</v>
@@ -13463,13 +13456,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>82</v>
@@ -13494,7 +13487,7 @@
         <v>357</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>359</v>
@@ -13585,7 +13578,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>367</v>
@@ -13703,7 +13696,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>368</v>
@@ -13823,7 +13816,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>369</v>
@@ -13871,7 +13864,7 @@
         <v>82</v>
       </c>
       <c r="S90" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T90" t="s" s="2">
         <v>82</v>
@@ -13945,7 +13938,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>378</v>
@@ -13993,7 +13986,7 @@
         <v>82</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>82</v>
@@ -14067,7 +14060,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>387</v>
@@ -14189,7 +14182,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>396</v>
@@ -14309,7 +14302,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>404</v>
@@ -14427,7 +14420,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>410</v>
@@ -14453,7 +14446,7 @@
         <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L95" t="s" s="2">
         <v>412</v>
@@ -14547,13 +14540,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>82</v>
@@ -14578,7 +14571,7 @@
         <v>357</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>359</v>
@@ -14649,7 +14642,7 @@
         <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>363</v>
@@ -14669,7 +14662,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>367</v>
@@ -14787,7 +14780,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>368</v>
@@ -14907,7 +14900,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>369</v>
@@ -15029,7 +15022,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>378</v>
@@ -15077,7 +15070,7 @@
         <v>82</v>
       </c>
       <c r="S100" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>82</v>
@@ -15151,7 +15144,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>387</v>
@@ -15180,7 +15173,7 @@
         <v>133</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>389</v>
@@ -15273,7 +15266,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>396</v>
@@ -15393,7 +15386,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>404</v>
@@ -15511,7 +15504,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>410</v>
@@ -15537,7 +15530,7 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L104" t="s" s="2">
         <v>412</v>
@@ -15631,13 +15624,13 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D105" t="s" s="2">
         <v>82</v>
@@ -15662,7 +15655,7 @@
         <v>357</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="M105" t="s" s="2">
         <v>359</v>
@@ -15753,7 +15746,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>367</v>
@@ -15871,7 +15864,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>368</v>
@@ -15991,7 +15984,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>369</v>
@@ -16113,7 +16106,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>378</v>
@@ -16161,7 +16154,7 @@
         <v>82</v>
       </c>
       <c r="S109" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="T109" t="s" s="2">
         <v>82</v>
@@ -16235,7 +16228,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>387</v>
@@ -16264,7 +16257,7 @@
         <v>133</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M110" t="s" s="2">
         <v>389</v>
@@ -16283,7 +16276,7 @@
         <v>82</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>392</v>
@@ -16357,7 +16350,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>396</v>
@@ -16477,7 +16470,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>404</v>
@@ -16595,7 +16588,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>410</v>
@@ -16621,7 +16614,7 @@
         <v>92</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L113" t="s" s="2">
         <v>412</v>
@@ -16715,13 +16708,13 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>82</v>
@@ -16746,7 +16739,7 @@
         <v>357</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M114" t="s" s="2">
         <v>359</v>
@@ -16837,7 +16830,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>367</v>
@@ -16955,7 +16948,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>368</v>
@@ -17075,7 +17068,7 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>369</v>
@@ -17197,7 +17190,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>378</v>
@@ -17245,7 +17238,7 @@
         <v>82</v>
       </c>
       <c r="S118" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="T118" t="s" s="2">
         <v>82</v>
@@ -17319,7 +17312,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>387</v>
@@ -17348,7 +17341,7 @@
         <v>133</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M119" t="s" s="2">
         <v>389</v>
@@ -17367,7 +17360,7 @@
         <v>82</v>
       </c>
       <c r="S119" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="T119" t="s" s="2">
         <v>392</v>
@@ -17441,7 +17434,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>396</v>
@@ -17561,7 +17554,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>404</v>
@@ -17679,7 +17672,7 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>410</v>
@@ -17705,7 +17698,7 @@
         <v>92</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>412</v>
@@ -17799,13 +17792,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>82</v>
@@ -17830,7 +17823,7 @@
         <v>357</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M123" t="s" s="2">
         <v>359</v>
@@ -17901,7 +17894,7 @@
         <v>103</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>363</v>
@@ -17921,7 +17914,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>367</v>
@@ -18039,7 +18032,7 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>368</v>
@@ -18159,7 +18152,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>369</v>
@@ -18207,7 +18200,7 @@
         <v>82</v>
       </c>
       <c r="S126" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="T126" t="s" s="2">
         <v>82</v>
@@ -18281,7 +18274,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>378</v>
@@ -18329,7 +18322,7 @@
         <v>82</v>
       </c>
       <c r="S127" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="T127" t="s" s="2">
         <v>82</v>
@@ -18403,7 +18396,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>387</v>
@@ -18432,7 +18425,7 @@
         <v>133</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M128" t="s" s="2">
         <v>389</v>
@@ -18451,7 +18444,7 @@
         <v>82</v>
       </c>
       <c r="S128" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="T128" t="s" s="2">
         <v>392</v>
@@ -18525,7 +18518,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>396</v>
@@ -18645,7 +18638,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>404</v>
@@ -18763,7 +18756,7 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B131" t="s" s="2">
         <v>410</v>
@@ -18789,7 +18782,7 @@
         <v>92</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L131" t="s" s="2">
         <v>412</v>
@@ -18883,13 +18876,13 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B132" t="s" s="2">
         <v>356</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D132" t="s" s="2">
         <v>82</v>
@@ -18914,7 +18907,7 @@
         <v>357</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="M132" t="s" s="2">
         <v>359</v>
@@ -18985,7 +18978,7 @@
         <v>103</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AL132" t="s" s="2">
         <v>363</v>
@@ -19005,7 +18998,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>367</v>
@@ -19123,7 +19116,7 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B134" t="s" s="2">
         <v>368</v>
@@ -19243,7 +19236,7 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B135" t="s" s="2">
         <v>369</v>
@@ -19291,7 +19284,7 @@
         <v>82</v>
       </c>
       <c r="S135" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T135" t="s" s="2">
         <v>82</v>
@@ -19365,7 +19358,7 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B136" t="s" s="2">
         <v>378</v>
@@ -19413,7 +19406,7 @@
         <v>82</v>
       </c>
       <c r="S136" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="T136" t="s" s="2">
         <v>82</v>
@@ -19434,7 +19427,7 @@
         <v>428</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>556</v>
+        <v>429</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>82</v>
@@ -19487,7 +19480,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B137" t="s" s="2">
         <v>387</v>
@@ -19609,7 +19602,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B138" t="s" s="2">
         <v>396</v>
@@ -19729,7 +19722,7 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B139" t="s" s="2">
         <v>404</v>
@@ -19847,7 +19840,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B140" t="s" s="2">
         <v>410</v>
@@ -19967,10 +19960,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -19993,26 +19986,26 @@
         <v>92</v>
       </c>
       <c r="K141" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="M141" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="L141" t="s" s="2">
+      <c r="N141" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M141" t="s" s="2">
+      <c r="O141" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="N141" t="s" s="2">
+      <c r="P141" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q141" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="O141" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="P141" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q141" t="s" s="2">
-        <v>567</v>
-      </c>
       <c r="R141" t="s" s="2">
         <v>82</v>
       </c>
@@ -20056,7 +20049,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>80</v>
@@ -20074,13 +20067,13 @@
         <v>82</v>
       </c>
       <c r="AL141" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AM141" t="s" s="2">
         <v>109</v>
       </c>
       <c r="AN141" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="AO141" t="s" s="2">
         <v>82</v>
@@ -20091,10 +20084,10 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -20117,19 +20110,19 @@
         <v>92</v>
       </c>
       <c r="K142" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M142" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="L142" t="s" s="2">
+      <c r="N142" t="s" s="2">
         <v>572</v>
       </c>
-      <c r="M142" t="s" s="2">
+      <c r="O142" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="N142" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="O142" t="s" s="2">
-        <v>575</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>82</v>
@@ -20166,7 +20159,7 @@
         <v>82</v>
       </c>
       <c r="AB142" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="AC142" s="2"/>
       <c r="AD142" t="s" s="2">
@@ -20176,7 +20169,7 @@
         <v>118</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>80</v>
@@ -20194,16 +20187,16 @@
         <v>82</v>
       </c>
       <c r="AL142" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN142" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO142" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM142" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AN142" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO142" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP142" t="s" s="2">
         <v>82</v>
@@ -20211,13 +20204,13 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D143" t="s" s="2">
         <v>82</v>
@@ -20239,19 +20232,19 @@
         <v>92</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -20300,7 +20293,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>80</v>
@@ -20318,16 +20311,16 @@
         <v>82</v>
       </c>
       <c r="AL143" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN143" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO143" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM143" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AN143" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO143" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP143" t="s" s="2">
         <v>82</v>
@@ -20335,10 +20328,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -20453,10 +20446,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -20573,10 +20566,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -20602,16 +20595,16 @@
         <v>172</v>
       </c>
       <c r="L146" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M146" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N146" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M146" t="s" s="2">
+      <c r="O146" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N146" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O146" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>82</v>
@@ -20621,7 +20614,7 @@
         <v>82</v>
       </c>
       <c r="S146" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T146" t="s" s="2">
         <v>82</v>
@@ -20639,28 +20632,28 @@
         <v>263</v>
       </c>
       <c r="Y146" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="Z146" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AA146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE146" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF146" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="Z146" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AA146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE146" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF146" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>80</v>
@@ -20687,7 +20680,7 @@
         <v>82</v>
       </c>
       <c r="AO146" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AP146" t="s" s="2">
         <v>82</v>
@@ -20695,10 +20688,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -20724,13 +20717,13 @@
         <v>105</v>
       </c>
       <c r="L147" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M147" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N147" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M147" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N147" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O147" t="s" s="2">
         <v>284</v>
@@ -20782,7 +20775,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>80</v>
@@ -20809,7 +20802,7 @@
         <v>82</v>
       </c>
       <c r="AO147" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AP147" t="s" s="2">
         <v>82</v>
@@ -20817,14 +20810,14 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E148" s="2"/>
       <c r="F148" t="s" s="2">
@@ -20846,13 +20839,13 @@
         <v>105</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M148" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N148" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N148" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="O148" s="2"/>
       <c r="P148" t="s" s="2">
@@ -20902,7 +20895,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>80</v>
@@ -20917,19 +20910,19 @@
         <v>103</v>
       </c>
       <c r="AK148" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AL148" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN148" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO148" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="AL148" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO148" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="AP148" t="s" s="2">
         <v>82</v>
@@ -20937,14 +20930,14 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -20966,13 +20959,13 @@
         <v>105</v>
       </c>
       <c r="L149" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M149" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N149" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="N149" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -21022,7 +21015,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>80</v>
@@ -21037,19 +21030,19 @@
         <v>103</v>
       </c>
       <c r="AK149" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO149" t="s" s="2">
         <v>622</v>
-      </c>
-      <c r="AL149" t="s" s="2">
-        <v>623</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO149" t="s" s="2">
-        <v>624</v>
       </c>
       <c r="AP149" t="s" s="2">
         <v>82</v>
@@ -21057,10 +21050,10 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21086,10 +21079,10 @@
         <v>105</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
@@ -21140,7 +21133,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>80</v>
@@ -21158,7 +21151,7 @@
         <v>82</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>82</v>
@@ -21167,7 +21160,7 @@
         <v>82</v>
       </c>
       <c r="AO150" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AP150" t="s" s="2">
         <v>82</v>
@@ -21175,10 +21168,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -21204,10 +21197,10 @@
         <v>105</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -21258,7 +21251,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>80</v>
@@ -21276,7 +21269,7 @@
         <v>82</v>
       </c>
       <c r="AL151" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AM151" t="s" s="2">
         <v>82</v>
@@ -21285,7 +21278,7 @@
         <v>82</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AP151" t="s" s="2">
         <v>82</v>
@@ -21293,10 +21286,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -21322,14 +21315,14 @@
         <v>343</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="P152" t="s" s="2">
         <v>82</v>
@@ -21378,7 +21371,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>80</v>
@@ -21405,7 +21398,7 @@
         <v>82</v>
       </c>
       <c r="AO152" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AP152" t="s" s="2">
         <v>82</v>
@@ -21413,13 +21406,13 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C153" t="s" s="2">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D153" t="s" s="2">
         <v>82</v>
@@ -21441,19 +21434,19 @@
         <v>92</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N153" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O153" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>82</v>
@@ -21502,7 +21495,7 @@
         <v>82</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>80</v>
@@ -21520,16 +21513,16 @@
         <v>82</v>
       </c>
       <c r="AL153" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="AM153" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AN153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO153" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="AM153" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AN153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO153" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="AP153" t="s" s="2">
         <v>82</v>
@@ -21537,10 +21530,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -21655,10 +21648,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -21773,13 +21766,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>82</v>
@@ -21801,13 +21794,13 @@
         <v>82</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>654</v>
-      </c>
-      <c r="L156" t="s" s="2">
-        <v>655</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>656</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
@@ -21873,7 +21866,7 @@
         <v>120</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>82</v>
@@ -21893,10 +21886,10 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -21922,16 +21915,16 @@
         <v>172</v>
       </c>
       <c r="L157" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M157" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="N157" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>591</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>82</v>
@@ -21959,28 +21952,28 @@
         <v>263</v>
       </c>
       <c r="Y157" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="Z157" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="AA157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE157" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF157" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="Z157" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AA157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE157" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF157" t="s" s="2">
-        <v>596</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>80</v>
@@ -22007,7 +22000,7 @@
         <v>82</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AP157" t="s" s="2">
         <v>82</v>
@@ -22015,10 +22008,10 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22044,13 +22037,13 @@
         <v>105</v>
       </c>
       <c r="L158" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M158" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N158" t="s" s="2">
         <v>600</v>
-      </c>
-      <c r="M158" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="O158" t="s" s="2">
         <v>284</v>
@@ -22102,7 +22095,7 @@
         <v>82</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>80</v>
@@ -22129,7 +22122,7 @@
         <v>82</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="AP158" t="s" s="2">
         <v>82</v>
@@ -22137,14 +22130,14 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E159" s="2"/>
       <c r="F159" t="s" s="2">
@@ -22166,13 +22159,13 @@
         <v>105</v>
       </c>
       <c r="L159" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="M159" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="N159" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M159" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="N159" t="s" s="2">
-        <v>610</v>
       </c>
       <c r="O159" s="2"/>
       <c r="P159" t="s" s="2">
@@ -22222,7 +22215,7 @@
         <v>82</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>80</v>
@@ -22237,10 +22230,10 @@
         <v>103</v>
       </c>
       <c r="AK159" t="s" s="2">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AL159" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="AM159" t="s" s="2">
         <v>82</v>
@@ -22249,7 +22242,7 @@
         <v>82</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>82</v>
@@ -22257,14 +22250,14 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E160" s="2"/>
       <c r="F160" t="s" s="2">
@@ -22286,13 +22279,13 @@
         <v>105</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="N160" t="s" s="2">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="O160" s="2"/>
       <c r="P160" t="s" s="2">
@@ -22342,7 +22335,7 @@
         <v>82</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>80</v>
@@ -22357,10 +22350,10 @@
         <v>103</v>
       </c>
       <c r="AK160" t="s" s="2">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AL160" t="s" s="2">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="AM160" t="s" s="2">
         <v>82</v>
@@ -22369,7 +22362,7 @@
         <v>82</v>
       </c>
       <c r="AO160" t="s" s="2">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AP160" t="s" s="2">
         <v>82</v>
@@ -22377,10 +22370,10 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -22406,10 +22399,10 @@
         <v>105</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
@@ -22460,7 +22453,7 @@
         <v>82</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>80</v>
@@ -22475,10 +22468,10 @@
         <v>103</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AL161" t="s" s="2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AM161" t="s" s="2">
         <v>82</v>
@@ -22487,7 +22480,7 @@
         <v>82</v>
       </c>
       <c r="AO161" t="s" s="2">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="AP161" t="s" s="2">
         <v>82</v>
@@ -22495,10 +22488,10 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -22524,10 +22517,10 @@
         <v>105</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
@@ -22578,7 +22571,7 @@
         <v>82</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>80</v>
@@ -22596,7 +22589,7 @@
         <v>82</v>
       </c>
       <c r="AL162" t="s" s="2">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="AM162" t="s" s="2">
         <v>82</v>
@@ -22605,7 +22598,7 @@
         <v>82</v>
       </c>
       <c r="AO162" t="s" s="2">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="AP162" t="s" s="2">
         <v>82</v>
@@ -22613,10 +22606,10 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -22642,14 +22635,14 @@
         <v>343</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>82</v>
@@ -22698,7 +22691,7 @@
         <v>82</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>80</v>
@@ -22725,7 +22718,7 @@
         <v>82</v>
       </c>
       <c r="AO163" t="s" s="2">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="AP163" t="s" s="2">
         <v>82</v>
@@ -22733,10 +22726,10 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -22759,19 +22752,19 @@
         <v>82</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>671</v>
       </c>
-      <c r="M164" t="s" s="2">
+      <c r="O164" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>673</v>
-      </c>
-      <c r="O164" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>82</v>
@@ -22820,7 +22813,7 @@
         <v>82</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>80</v>
@@ -22832,22 +22825,22 @@
         <v>206</v>
       </c>
       <c r="AJ164" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AK164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL164" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AM164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN164" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO164" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AK164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL164" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AM164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN164" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO164" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="AP164" t="s" s="2">
         <v>82</v>
@@ -22855,10 +22848,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -22884,16 +22877,16 @@
         <v>172</v>
       </c>
       <c r="L165" t="s" s="2">
+        <v>677</v>
+      </c>
+      <c r="M165" t="s" s="2">
+        <v>678</v>
+      </c>
+      <c r="N165" t="s" s="2">
         <v>679</v>
       </c>
-      <c r="M165" t="s" s="2">
+      <c r="O165" t="s" s="2">
         <v>680</v>
-      </c>
-      <c r="N165" t="s" s="2">
-        <v>681</v>
-      </c>
-      <c r="O165" t="s" s="2">
-        <v>682</v>
       </c>
       <c r="P165" t="s" s="2">
         <v>82</v>
@@ -22922,7 +22915,7 @@
       </c>
       <c r="Y165" s="2"/>
       <c r="Z165" t="s" s="2">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="AA165" t="s" s="2">
         <v>82</v>
@@ -22940,7 +22933,7 @@
         <v>82</v>
       </c>
       <c r="AF165" t="s" s="2">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AG165" t="s" s="2">
         <v>80</v>
@@ -22955,19 +22948,19 @@
         <v>103</v>
       </c>
       <c r="AK165" t="s" s="2">
+        <v>682</v>
+      </c>
+      <c r="AL165" t="s" s="2">
+        <v>683</v>
+      </c>
+      <c r="AM165" t="s" s="2">
         <v>684</v>
       </c>
-      <c r="AL165" t="s" s="2">
+      <c r="AN165" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO165" t="s" s="2">
         <v>685</v>
-      </c>
-      <c r="AM165" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="AN165" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO165" t="s" s="2">
-        <v>687</v>
       </c>
       <c r="AP165" t="s" s="2">
         <v>82</v>
@@ -22975,10 +22968,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -23001,19 +22994,19 @@
         <v>92</v>
       </c>
       <c r="K166" t="s" s="2">
+        <v>687</v>
+      </c>
+      <c r="L166" t="s" s="2">
+        <v>688</v>
+      </c>
+      <c r="M166" t="s" s="2">
         <v>689</v>
       </c>
-      <c r="L166" t="s" s="2">
+      <c r="N166" t="s" s="2">
         <v>690</v>
       </c>
-      <c r="M166" t="s" s="2">
+      <c r="O166" t="s" s="2">
         <v>691</v>
-      </c>
-      <c r="N166" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="O166" t="s" s="2">
-        <v>693</v>
       </c>
       <c r="P166" t="s" s="2">
         <v>82</v>
@@ -23062,7 +23055,7 @@
         <v>82</v>
       </c>
       <c r="AF166" t="s" s="2">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="AG166" t="s" s="2">
         <v>80</v>
@@ -23077,30 +23070,30 @@
         <v>103</v>
       </c>
       <c r="AK166" t="s" s="2">
+        <v>692</v>
+      </c>
+      <c r="AL166" t="s" s="2">
+        <v>693</v>
+      </c>
+      <c r="AM166" t="s" s="2">
         <v>694</v>
       </c>
-      <c r="AL166" t="s" s="2">
+      <c r="AN166" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO166" t="s" s="2">
         <v>695</v>
       </c>
-      <c r="AM166" t="s" s="2">
+      <c r="AP166" t="s" s="2">
         <v>696</v>
-      </c>
-      <c r="AN166" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO166" t="s" s="2">
-        <v>697</v>
-      </c>
-      <c r="AP166" t="s" s="2">
-        <v>698</v>
       </c>
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -23123,19 +23116,19 @@
         <v>92</v>
       </c>
       <c r="K167" t="s" s="2">
+        <v>698</v>
+      </c>
+      <c r="L167" t="s" s="2">
+        <v>699</v>
+      </c>
+      <c r="M167" t="s" s="2">
         <v>700</v>
       </c>
-      <c r="L167" t="s" s="2">
+      <c r="N167" t="s" s="2">
         <v>701</v>
       </c>
-      <c r="M167" t="s" s="2">
+      <c r="O167" t="s" s="2">
         <v>702</v>
-      </c>
-      <c r="N167" t="s" s="2">
-        <v>703</v>
-      </c>
-      <c r="O167" t="s" s="2">
-        <v>704</v>
       </c>
       <c r="P167" t="s" s="2">
         <v>82</v>
@@ -23184,7 +23177,7 @@
         <v>82</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>80</v>
@@ -23202,7 +23195,7 @@
         <v>82</v>
       </c>
       <c r="AL167" t="s" s="2">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="AM167" t="s" s="2">
         <v>109</v>
@@ -23211,7 +23204,7 @@
         <v>82</v>
       </c>
       <c r="AO167" t="s" s="2">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="AP167" t="s" s="2">
         <v>82</v>
@@ -23219,10 +23212,10 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -23257,7 +23250,7 @@
         <v>242</v>
       </c>
       <c r="O168" t="s" s="2">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>82</v>
@@ -23306,7 +23299,7 @@
         <v>82</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>80</v>
@@ -23341,10 +23334,10 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -23370,14 +23363,14 @@
         <v>379</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>82</v>
@@ -23406,7 +23399,7 @@
       </c>
       <c r="Y169" s="2"/>
       <c r="Z169" t="s" s="2">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>82</v>
@@ -23424,7 +23417,7 @@
         <v>82</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>80</v>
@@ -23442,16 +23435,16 @@
         <v>82</v>
       </c>
       <c r="AL169" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="AM169" t="s" s="2">
+        <v>713</v>
+      </c>
+      <c r="AN169" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO169" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="AM169" t="s" s="2">
-        <v>715</v>
-      </c>
-      <c r="AN169" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO169" t="s" s="2">
-        <v>716</v>
       </c>
       <c r="AP169" t="s" s="2">
         <v>82</v>
@@ -23459,10 +23452,10 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -23485,19 +23478,19 @@
         <v>82</v>
       </c>
       <c r="K170" t="s" s="2">
+        <v>716</v>
+      </c>
+      <c r="L170" t="s" s="2">
+        <v>717</v>
+      </c>
+      <c r="M170" t="s" s="2">
         <v>718</v>
       </c>
-      <c r="L170" t="s" s="2">
+      <c r="N170" t="s" s="2">
         <v>719</v>
       </c>
-      <c r="M170" t="s" s="2">
+      <c r="O170" t="s" s="2">
         <v>720</v>
-      </c>
-      <c r="N170" t="s" s="2">
-        <v>721</v>
-      </c>
-      <c r="O170" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>82</v>
@@ -23546,7 +23539,7 @@
         <v>82</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>80</v>
@@ -23564,7 +23557,7 @@
         <v>82</v>
       </c>
       <c r="AL170" t="s" s="2">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="AM170" t="s" s="2">
         <v>109</v>
@@ -23573,7 +23566,7 @@
         <v>82</v>
       </c>
       <c r="AO170" t="s" s="2">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AP170" t="s" s="2">
         <v>82</v>
@@ -23581,10 +23574,10 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -23607,19 +23600,19 @@
         <v>82</v>
       </c>
       <c r="K171" t="s" s="2">
+        <v>724</v>
+      </c>
+      <c r="L171" t="s" s="2">
+        <v>725</v>
+      </c>
+      <c r="M171" t="s" s="2">
         <v>726</v>
       </c>
-      <c r="L171" t="s" s="2">
+      <c r="N171" t="s" s="2">
         <v>727</v>
       </c>
-      <c r="M171" t="s" s="2">
+      <c r="O171" t="s" s="2">
         <v>728</v>
-      </c>
-      <c r="N171" t="s" s="2">
-        <v>729</v>
-      </c>
-      <c r="O171" t="s" s="2">
-        <v>730</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>82</v>
@@ -23668,7 +23661,7 @@
         <v>82</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>80</v>
@@ -23686,7 +23679,7 @@
         <v>82</v>
       </c>
       <c r="AL171" t="s" s="2">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="AM171" t="s" s="2">
         <v>109</v>
@@ -23695,7 +23688,7 @@
         <v>82</v>
       </c>
       <c r="AO171" t="s" s="2">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="AP171" t="s" s="2">
         <v>82</v>
@@ -23703,10 +23696,10 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -23729,19 +23722,19 @@
         <v>82</v>
       </c>
       <c r="K172" t="s" s="2">
+        <v>732</v>
+      </c>
+      <c r="L172" t="s" s="2">
+        <v>733</v>
+      </c>
+      <c r="M172" t="s" s="2">
         <v>734</v>
       </c>
-      <c r="L172" t="s" s="2">
+      <c r="N172" t="s" s="2">
         <v>735</v>
       </c>
-      <c r="M172" t="s" s="2">
+      <c r="O172" t="s" s="2">
         <v>736</v>
-      </c>
-      <c r="N172" t="s" s="2">
-        <v>737</v>
-      </c>
-      <c r="O172" t="s" s="2">
-        <v>738</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>82</v>
@@ -23790,7 +23783,7 @@
         <v>82</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>80</v>
@@ -23802,13 +23795,13 @@
         <v>82</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="AK172" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL172" t="s" s="2">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="AM172" t="s" s="2">
         <v>109</v>
@@ -23825,10 +23818,10 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -23943,10 +23936,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24059,13 +24052,13 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B175" t="s" s="2">
+        <v>740</v>
+      </c>
+      <c r="C175" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="C175" t="s" s="2">
-        <v>744</v>
       </c>
       <c r="D175" t="s" s="2">
         <v>82</v>
@@ -24087,13 +24080,13 @@
         <v>82</v>
       </c>
       <c r="K175" t="s" s="2">
+        <v>743</v>
+      </c>
+      <c r="L175" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="M175" t="s" s="2">
         <v>745</v>
-      </c>
-      <c r="L175" t="s" s="2">
-        <v>746</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>747</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
@@ -24179,13 +24172,13 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>82</v>
@@ -24207,13 +24200,13 @@
         <v>82</v>
       </c>
       <c r="K176" t="s" s="2">
+        <v>748</v>
+      </c>
+      <c r="L176" t="s" s="2">
+        <v>749</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>750</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>751</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>752</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -24299,14 +24292,14 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E177" s="2"/>
       <c r="F177" t="s" s="2">
@@ -24328,10 +24321,10 @@
         <v>112</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N177" t="s" s="2">
         <v>115</v>
@@ -24386,7 +24379,7 @@
         <v>82</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>80</v>
@@ -24421,10 +24414,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -24450,14 +24443,14 @@
         <v>379</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>82</v>
@@ -24485,16 +24478,16 @@
         <v>154</v>
       </c>
       <c r="Y178" t="s" s="2">
+        <v>760</v>
+      </c>
+      <c r="Z178" t="s" s="2">
+        <v>761</v>
+      </c>
+      <c r="AA178" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB178" t="s" s="2">
         <v>762</v>
-      </c>
-      <c r="Z178" t="s" s="2">
-        <v>763</v>
-      </c>
-      <c r="AA178" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB178" t="s" s="2">
-        <v>764</v>
       </c>
       <c r="AC178" s="2"/>
       <c r="AD178" t="s" s="2">
@@ -24504,7 +24497,7 @@
         <v>118</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>80</v>
@@ -24522,7 +24515,7 @@
         <v>82</v>
       </c>
       <c r="AL178" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AM178" t="s" s="2">
         <v>109</v>
@@ -24531,7 +24524,7 @@
         <v>82</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AP178" t="s" s="2">
         <v>82</v>
@@ -24539,13 +24532,13 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C179" t="s" s="2">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="D179" t="s" s="2">
         <v>82</v>
@@ -24570,14 +24563,14 @@
         <v>379</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>82</v>
@@ -24606,7 +24599,7 @@
       </c>
       <c r="Y179" s="2"/>
       <c r="Z179" t="s" s="2">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="AA179" t="s" s="2">
         <v>82</v>
@@ -24624,7 +24617,7 @@
         <v>82</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>80</v>
@@ -24642,7 +24635,7 @@
         <v>82</v>
       </c>
       <c r="AL179" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AM179" t="s" s="2">
         <v>109</v>
@@ -24651,7 +24644,7 @@
         <v>82</v>
       </c>
       <c r="AO179" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AP179" t="s" s="2">
         <v>82</v>
@@ -24659,13 +24652,13 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C180" t="s" s="2">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="D180" t="s" s="2">
         <v>82</v>
@@ -24690,14 +24683,14 @@
         <v>379</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" t="s" s="2">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="P180" t="s" s="2">
         <v>82</v>
@@ -24726,7 +24719,7 @@
       </c>
       <c r="Y180" s="2"/>
       <c r="Z180" t="s" s="2">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>82</v>
@@ -24744,7 +24737,7 @@
         <v>82</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>80</v>
@@ -24762,7 +24755,7 @@
         <v>82</v>
       </c>
       <c r="AL180" t="s" s="2">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="AM180" t="s" s="2">
         <v>109</v>
@@ -24771,7 +24764,7 @@
         <v>82</v>
       </c>
       <c r="AO180" t="s" s="2">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AP180" t="s" s="2">
         <v>82</v>
@@ -24779,10 +24772,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -24805,19 +24798,19 @@
         <v>82</v>
       </c>
       <c r="K181" t="s" s="2">
+        <v>774</v>
+      </c>
+      <c r="L181" t="s" s="2">
+        <v>775</v>
+      </c>
+      <c r="M181" t="s" s="2">
         <v>776</v>
       </c>
-      <c r="L181" t="s" s="2">
+      <c r="N181" t="s" s="2">
         <v>777</v>
       </c>
-      <c r="M181" t="s" s="2">
+      <c r="O181" t="s" s="2">
         <v>778</v>
-      </c>
-      <c r="N181" t="s" s="2">
-        <v>779</v>
-      </c>
-      <c r="O181" t="s" s="2">
-        <v>780</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>82</v>
@@ -24866,7 +24859,7 @@
         <v>82</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>80</v>
@@ -24884,7 +24877,7 @@
         <v>82</v>
       </c>
       <c r="AL181" t="s" s="2">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AM181" t="s" s="2">
         <v>82</v>
@@ -24893,7 +24886,7 @@
         <v>82</v>
       </c>
       <c r="AO181" t="s" s="2">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="AP181" t="s" s="2">
         <v>82</v>
@@ -24901,10 +24894,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -24927,19 +24920,19 @@
         <v>82</v>
       </c>
       <c r="K182" t="s" s="2">
+        <v>668</v>
+      </c>
+      <c r="L182" t="s" s="2">
+        <v>669</v>
+      </c>
+      <c r="M182" t="s" s="2">
         <v>670</v>
       </c>
-      <c r="L182" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="M182" t="s" s="2">
+      <c r="N182" t="s" s="2">
+        <v>782</v>
+      </c>
+      <c r="O182" t="s" s="2">
         <v>672</v>
-      </c>
-      <c r="N182" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="O182" t="s" s="2">
-        <v>674</v>
       </c>
       <c r="P182" t="s" s="2">
         <v>82</v>
@@ -24988,7 +24981,7 @@
         <v>82</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>80</v>
@@ -25000,22 +24993,22 @@
         <v>206</v>
       </c>
       <c r="AJ182" t="s" s="2">
+        <v>673</v>
+      </c>
+      <c r="AK182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL182" t="s" s="2">
+        <v>674</v>
+      </c>
+      <c r="AM182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN182" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO182" t="s" s="2">
         <v>675</v>
-      </c>
-      <c r="AK182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL182" t="s" s="2">
-        <v>676</v>
-      </c>
-      <c r="AM182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AN182" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO182" t="s" s="2">
-        <v>677</v>
       </c>
       <c r="AP182" t="s" s="2">
         <v>82</v>
@@ -25023,10 +25016,10 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -25049,17 +25042,17 @@
         <v>82</v>
       </c>
       <c r="K183" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="L183" t="s" s="2">
+        <v>785</v>
+      </c>
+      <c r="M183" t="s" s="2">
         <v>786</v>
-      </c>
-      <c r="L183" t="s" s="2">
-        <v>787</v>
-      </c>
-      <c r="M183" t="s" s="2">
-        <v>788</v>
       </c>
       <c r="N183" s="2"/>
       <c r="O183" t="s" s="2">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="P183" t="s" s="2">
         <v>82</v>
@@ -25108,7 +25101,7 @@
         <v>82</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>80</v>
@@ -25126,7 +25119,7 @@
         <v>82</v>
       </c>
       <c r="AL183" t="s" s="2">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="AM183" t="s" s="2">
         <v>109</v>
@@ -25135,7 +25128,7 @@
         <v>82</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>82</v>
@@ -25143,10 +25136,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -25172,14 +25165,14 @@
         <v>172</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" t="s" s="2">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="P184" t="s" s="2">
         <v>82</v>
@@ -25207,10 +25200,10 @@
         <v>263</v>
       </c>
       <c r="Y184" t="s" s="2">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="Z184" t="s" s="2">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="AA184" t="s" s="2">
         <v>82</v>
@@ -25228,7 +25221,7 @@
         <v>82</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>80</v>
@@ -25246,7 +25239,7 @@
         <v>82</v>
       </c>
       <c r="AL184" t="s" s="2">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AM184" t="s" s="2">
         <v>109</v>
@@ -25255,7 +25248,7 @@
         <v>82</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>82</v>
@@ -25263,10 +25256,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -25289,17 +25282,17 @@
         <v>82</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" t="s" s="2">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="P185" t="s" s="2">
         <v>82</v>
@@ -25348,7 +25341,7 @@
         <v>82</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>80</v>
@@ -25357,7 +25350,7 @@
         <v>91</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>103</v>
@@ -25366,7 +25359,7 @@
         <v>82</v>
       </c>
       <c r="AL185" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AM185" t="s" s="2">
         <v>109</v>
@@ -25375,7 +25368,7 @@
         <v>82</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>82</v>
@@ -25383,10 +25376,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -25412,10 +25405,10 @@
         <v>343</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -25466,7 +25459,7 @@
         <v>82</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>80</v>
@@ -25484,7 +25477,7 @@
         <v>82</v>
       </c>
       <c r="AL186" t="s" s="2">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="AM186" t="s" s="2">
         <v>109</v>
@@ -25501,10 +25494,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -25527,19 +25520,19 @@
         <v>82</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L187" t="s" s="2">
+        <v>809</v>
+      </c>
+      <c r="M187" t="s" s="2">
+        <v>810</v>
+      </c>
+      <c r="N187" t="s" s="2">
         <v>811</v>
       </c>
-      <c r="M187" t="s" s="2">
+      <c r="O187" t="s" s="2">
         <v>812</v>
-      </c>
-      <c r="N187" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>814</v>
       </c>
       <c r="P187" t="s" s="2">
         <v>82</v>
@@ -25588,7 +25581,7 @@
         <v>82</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>80</v>
@@ -25606,10 +25599,10 @@
         <v>82</v>
       </c>
       <c r="AL187" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AM187" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="AN187" t="s" s="2">
         <v>82</v>
@@ -25623,10 +25616,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -25741,10 +25734,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -25861,14 +25854,14 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
@@ -25890,10 +25883,10 @@
         <v>112</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N190" t="s" s="2">
         <v>115</v>
@@ -25948,7 +25941,7 @@
         <v>82</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>80</v>
@@ -25983,10 +25976,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26012,16 +26005,16 @@
         <v>379</v>
       </c>
       <c r="L191" t="s" s="2">
+        <v>819</v>
+      </c>
+      <c r="M191" t="s" s="2">
+        <v>820</v>
+      </c>
+      <c r="N191" t="s" s="2">
         <v>821</v>
       </c>
-      <c r="M191" t="s" s="2">
+      <c r="O191" t="s" s="2">
         <v>822</v>
-      </c>
-      <c r="N191" t="s" s="2">
-        <v>823</v>
-      </c>
-      <c r="O191" t="s" s="2">
-        <v>824</v>
       </c>
       <c r="P191" t="s" s="2">
         <v>82</v>
@@ -26070,7 +26063,7 @@
         <v>82</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>91</v>
@@ -26088,16 +26081,16 @@
         <v>82</v>
       </c>
       <c r="AL191" t="s" s="2">
+        <v>823</v>
+      </c>
+      <c r="AM191" t="s" s="2">
+        <v>824</v>
+      </c>
+      <c r="AN191" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO191" t="s" s="2">
         <v>825</v>
-      </c>
-      <c r="AM191" t="s" s="2">
-        <v>826</v>
-      </c>
-      <c r="AN191" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO191" t="s" s="2">
-        <v>827</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>82</v>
@@ -26105,10 +26098,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26131,19 +26124,19 @@
         <v>82</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L192" t="s" s="2">
+        <v>827</v>
+      </c>
+      <c r="M192" t="s" s="2">
+        <v>828</v>
+      </c>
+      <c r="N192" t="s" s="2">
         <v>829</v>
       </c>
-      <c r="M192" t="s" s="2">
+      <c r="O192" t="s" s="2">
         <v>830</v>
-      </c>
-      <c r="N192" t="s" s="2">
-        <v>831</v>
-      </c>
-      <c r="O192" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="P192" t="s" s="2">
         <v>82</v>
@@ -26192,7 +26185,7 @@
         <v>82</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>80</v>
@@ -26210,16 +26203,16 @@
         <v>82</v>
       </c>
       <c r="AL192" t="s" s="2">
+        <v>831</v>
+      </c>
+      <c r="AM192" t="s" s="2">
+        <v>832</v>
+      </c>
+      <c r="AN192" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO192" t="s" s="2">
         <v>833</v>
-      </c>
-      <c r="AM192" t="s" s="2">
-        <v>834</v>
-      </c>
-      <c r="AN192" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO192" t="s" s="2">
-        <v>835</v>
       </c>
       <c r="AP192" t="s" s="2">
         <v>82</v>
@@ -26227,14 +26220,14 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E193" s="2"/>
       <c r="F193" t="s" s="2">
@@ -26253,16 +26246,16 @@
         <v>82</v>
       </c>
       <c r="K193" t="s" s="2">
+        <v>836</v>
+      </c>
+      <c r="L193" t="s" s="2">
+        <v>837</v>
+      </c>
+      <c r="M193" t="s" s="2">
         <v>838</v>
       </c>
-      <c r="L193" t="s" s="2">
+      <c r="N193" t="s" s="2">
         <v>839</v>
-      </c>
-      <c r="M193" t="s" s="2">
-        <v>840</v>
-      </c>
-      <c r="N193" t="s" s="2">
-        <v>841</v>
       </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
@@ -26312,7 +26305,7 @@
         <v>82</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>80</v>
@@ -26330,7 +26323,7 @@
         <v>82</v>
       </c>
       <c r="AL193" t="s" s="2">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="AM193" t="s" s="2">
         <v>109</v>
@@ -26339,7 +26332,7 @@
         <v>82</v>
       </c>
       <c r="AO193" t="s" s="2">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="AP193" t="s" s="2">
         <v>82</v>
@@ -26347,10 +26340,10 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -26373,19 +26366,19 @@
         <v>92</v>
       </c>
       <c r="K194" t="s" s="2">
+        <v>843</v>
+      </c>
+      <c r="L194" t="s" s="2">
+        <v>844</v>
+      </c>
+      <c r="M194" t="s" s="2">
         <v>845</v>
       </c>
-      <c r="L194" t="s" s="2">
+      <c r="N194" t="s" s="2">
         <v>846</v>
       </c>
-      <c r="M194" t="s" s="2">
+      <c r="O194" t="s" s="2">
         <v>847</v>
-      </c>
-      <c r="N194" t="s" s="2">
-        <v>848</v>
-      </c>
-      <c r="O194" t="s" s="2">
-        <v>849</v>
       </c>
       <c r="P194" t="s" s="2">
         <v>82</v>
@@ -26434,7 +26427,7 @@
         <v>82</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>80</v>
@@ -26452,10 +26445,10 @@
         <v>82</v>
       </c>
       <c r="AL194" t="s" s="2">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="AM194" t="s" s="2">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AN194" t="s" s="2">
         <v>82</v>
@@ -26469,10 +26462,10 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -26495,19 +26488,19 @@
         <v>92</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="L195" t="s" s="2">
+        <v>850</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="N195" t="s" s="2">
         <v>852</v>
       </c>
-      <c r="M195" t="s" s="2">
+      <c r="O195" t="s" s="2">
         <v>853</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>854</v>
-      </c>
-      <c r="O195" t="s" s="2">
-        <v>855</v>
       </c>
       <c r="P195" t="s" s="2">
         <v>82</v>
@@ -26556,7 +26549,7 @@
         <v>82</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>80</v>
@@ -26574,7 +26567,7 @@
         <v>82</v>
       </c>
       <c r="AL195" t="s" s="2">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AM195" t="s" s="2">
         <v>109</v>
@@ -26591,10 +26584,10 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -26709,10 +26702,10 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -26829,14 +26822,14 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E198" s="2"/>
       <c r="F198" t="s" s="2">
@@ -26858,10 +26851,10 @@
         <v>112</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N198" t="s" s="2">
         <v>115</v>
@@ -26916,7 +26909,7 @@
         <v>82</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>80</v>
@@ -26951,10 +26944,10 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -26977,16 +26970,16 @@
         <v>92</v>
       </c>
       <c r="K199" t="s" s="2">
+        <v>859</v>
+      </c>
+      <c r="L199" t="s" s="2">
+        <v>860</v>
+      </c>
+      <c r="M199" t="s" s="2">
         <v>861</v>
       </c>
-      <c r="L199" t="s" s="2">
+      <c r="N199" t="s" s="2">
         <v>862</v>
-      </c>
-      <c r="M199" t="s" s="2">
-        <v>863</v>
-      </c>
-      <c r="N199" t="s" s="2">
-        <v>864</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
@@ -27036,7 +27029,7 @@
         <v>82</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>91</v>
@@ -27063,7 +27056,7 @@
         <v>82</v>
       </c>
       <c r="AO199" t="s" s="2">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="AP199" t="s" s="2">
         <v>82</v>
@@ -27071,10 +27064,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -27100,10 +27093,10 @@
         <v>172</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -27133,10 +27126,10 @@
         <v>263</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>82</v>
@@ -27154,7 +27147,7 @@
         <v>82</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>91</v>
@@ -27172,7 +27165,7 @@
         <v>82</v>
       </c>
       <c r="AL200" t="s" s="2">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="AM200" t="s" s="2">
         <v>109</v>
